--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/children_under_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/children_under_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="219">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -870,6 +870,12 @@
     <t xml:space="preserve">selected(${diarrhoea}, ‘yes’) or selected(${consciousness_loss}, ‘yes’)  or selected(${child_vomiting}, ‘yes’) or selected(${child_fever}, ‘yes’) or selected(${sleeping_under_net}, ‘no’) </t>
   </si>
   <si>
+    <t xml:space="preserve">suspected_of_malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if((selected(${diarrhoea}, ‘yes’) or selected(${consciousness_loss}, ‘yes’)  or selected(${child_vomiting}, ‘yes’) or selected(${child_fever}, ‘yes’) or selected(${sleeping_under_net}, ‘no’)),’Yes’,’No’)</t>
+  </si>
+  <si>
     <t xml:space="preserve">group_review</t>
   </si>
   <si>
@@ -937,6 +943,87 @@
     <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">r_findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_appetite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss of appetite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${eat_drink},’no’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nausea and vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_breathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathing difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${breathing},’yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${tiresome},’yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${headaches},’yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${diarrhoea}, ‘yes’) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_travelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travelled to a malaria prone area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${travelled},’yes’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_findings_followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up task will appear in 3 days </t>
+  </si>
+  <si>
     <t xml:space="preserve">r_recommendation</t>
   </si>
   <si>
@@ -947,267 +1034,6 @@
   </si>
   <si>
     <t xml:space="preserve">h1 red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_findings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_fever</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} has fever symptoms</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">r_appetite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} has loss of appetite</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${eat_drink},’no’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_vomiting</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} has nausea and vomiting symptoms</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">r_breathing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${patient_name} has breathing difficulties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${breathing},’yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_fatigue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${patient_name} is experiencing fatigue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${tiresome},’yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_headache</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} is experiencing headaches</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${headaches},’yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_diarrhoea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} is experiencing diarrhoea</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${diarrhoea}, ‘yes’) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_travelled</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} has travelled to a malaria prone area</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${travelled},’yes’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_findings_followup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up Task &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up task will appear in 3 days </t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1540,7 +1366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1622,6 +1448,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1826,26 +1660,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ85"/>
+  <dimension ref="A1:AJ86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="35.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="39.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="23.99"/>
   </cols>
   <sheetData>
@@ -4635,779 +4470,811 @@
       <c r="AE65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="20"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="23" t="s">
+      <c r="B68" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D68" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="28" t="s">
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="32"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-    </row>
-    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="32"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B69" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="D69" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="24"/>
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="32"/>
+    </row>
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-    </row>
-    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="s">
+      <c r="C70" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
+    </row>
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B71" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="32"/>
+      <c r="AB71" s="32"/>
+    </row>
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-    </row>
-    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="33" t="s">
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="32"/>
-      <c r="U71" s="32"/>
-      <c r="V71" s="32"/>
-      <c r="W71" s="32"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="32"/>
-      <c r="Z71" s="32"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-    </row>
-    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="33" t="s">
+      <c r="B73" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="32"/>
+      <c r="AB73" s="32"/>
+    </row>
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32"/>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-    </row>
-    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33" t="s">
+      <c r="B74" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+    </row>
+    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
-      <c r="W73" s="32"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-    </row>
-    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="33" t="s">
+      <c r="B75" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="32"/>
+      <c r="AB75" s="32"/>
+    </row>
+    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B76" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+    </row>
+    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="32"/>
+    </row>
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="32"/>
+      <c r="AB78" s="32"/>
+    </row>
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+    </row>
+    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+    </row>
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+    </row>
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+    </row>
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="32"/>
-      <c r="V74" s="32"/>
-      <c r="W74" s="32"/>
-      <c r="X74" s="32"/>
-      <c r="Y74" s="32"/>
-      <c r="Z74" s="32"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-    </row>
-    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="s">
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+    </row>
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="32"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="30"/>
-    </row>
-    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="33" t="s">
+      <c r="B84" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+    </row>
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-    </row>
-    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32"/>
-      <c r="U77" s="32"/>
-      <c r="V77" s="32"/>
-      <c r="W77" s="32"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="32"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="32"/>
-      <c r="V78" s="32"/>
-      <c r="W78" s="32"/>
-      <c r="X78" s="32"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="30"/>
-      <c r="AB78" s="30"/>
-    </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="30"/>
-    </row>
-    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-    </row>
-    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="30"/>
-      <c r="AB81" s="30"/>
-    </row>
-    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
-      <c r="X82" s="32"/>
-      <c r="Y82" s="32"/>
-      <c r="Z82" s="32"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-    </row>
-    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="22" t="s">
+      <c r="B85" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C85" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="32"/>
-      <c r="U83" s="32"/>
-      <c r="V83" s="32"/>
-      <c r="W83" s="32"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="32"/>
-      <c r="Z83" s="32"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-    </row>
-    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="22" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="G85" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="32"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="30"/>
-      <c r="AB85" s="30"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="31"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="31"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E42:E66" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E42:E65 E67" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5416,6 +5283,10 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J40" type="list">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E66" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5441,179 +5312,179 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="28.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="35" width="45.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="37" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="35" t="n">
+      <c r="B6" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35" t="n">
+      <c r="B7" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="35" t="n">
+      <c r="B8" s="37" t="n">
         <v>14</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5697,94 +5568,94 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="49" t="n">
+      <c r="C2" s="51" t="n">
         <f aca="true">NOW()</f>
-        <v>45090.5183817832</v>
-      </c>
-      <c r="D2" s="50" t="s">
+        <v>45218.3734118738</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/children_under_assessment.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/children_under_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="218">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referral_needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${diarrhoea}, ‘yes’) or selected(${consciousness_loss}, ‘yes’)  or selected(${child_vomiting}, ‘yes’) or selected(${child_fever}, ‘yes’) or selected(${sleeping_under_net}, ‘no’) </t>
   </si>
   <si>
     <t xml:space="preserve">children_under_assessment</t>
@@ -415,33 +421,7 @@
     <t xml:space="preserve">fever_recommendation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Recommend ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} to visit a health facility immediately</t>
-    </r>
+    <t xml:space="preserve">&lt;span style=”color: red”&gt;Refer ${patient_name} to visit a health facility immediately&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${fever_period},’3’) or selected(${fever_period},’7’)  or selected(${fever_period},’14’)</t>
@@ -835,41 +815,6 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">refer_to_facility</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Refer ${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patient_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">} to visit a health facility immediately?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${diarrhoea}, ‘yes’) or selected(${consciousness_loss}, ‘yes’)  or selected(${child_vomiting}, ‘yes’) or selected(${child_fever}, ‘yes’) or selected(${sleeping_under_net}, ‘no’) </t>
-  </si>
-  <si>
     <t xml:space="preserve">suspected_of_malaria</t>
   </si>
   <si>
@@ -1027,10 +972,35 @@
     <t xml:space="preserve">r_recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Please recommend ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${refer_to_facility}, ‘yes’)   </t>
+    <t xml:space="preserve">Please refer ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">selected(${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">referral_needed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}, ‘true’)   </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">h1 red</t>
@@ -1663,12 +1633,12 @@
   <dimension ref="A1:AJ86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.9"/>
@@ -3471,63 +3441,68 @@
       <c r="AI40" s="16"/>
       <c r="AJ40" s="16"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="19" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C41" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -3555,19 +3530,19 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
@@ -3596,20 +3571,18 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -3639,18 +3612,20 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -3680,19 +3655,19 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -3721,21 +3696,19 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>105</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -3747,6 +3720,7 @@
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
@@ -3757,27 +3731,28 @@
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
       <c r="AE48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -3788,7 +3763,6 @@
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
       <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
@@ -3804,20 +3778,22 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="G50" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -3839,13 +3815,12 @@
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
       <c r="AE50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>112</v>
@@ -3855,7 +3830,7 @@
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -3886,7 +3861,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>114</v>
@@ -3896,11 +3871,9 @@
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>116</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -3929,22 +3902,22 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B53" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="F53" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -3966,25 +3939,28 @@
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
       <c r="AD53" s="20"/>
       <c r="AE53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -4006,13 +3982,12 @@
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
       <c r="AD54" s="20"/>
       <c r="AE54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>121</v>
@@ -4022,7 +3997,7 @@
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
@@ -4053,22 +4028,20 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="E56" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -4090,25 +4063,28 @@
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
       <c r="AE56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -4130,28 +4106,25 @@
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
       <c r="AE57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="E58" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -4173,25 +4146,28 @@
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
       <c r="AE58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="G59" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -4213,13 +4189,12 @@
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
       <c r="AD59" s="20"/>
       <c r="AE59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>131</v>
@@ -4229,7 +4204,7 @@
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
@@ -4260,7 +4235,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>133</v>
@@ -4270,7 +4245,7 @@
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
@@ -4301,7 +4276,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>135</v>
@@ -4311,11 +4286,9 @@
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>137</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -4344,19 +4317,21 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -4385,7 +4360,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>140</v>
@@ -4395,7 +4370,7 @@
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
@@ -4424,23 +4399,21 @@
       <c r="AD64" s="20"/>
       <c r="AE64" s="20"/>
     </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B65" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
@@ -4459,9 +4432,7 @@
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
-      <c r="Y65" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
@@ -4474,7 +4445,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>31</v>
@@ -4493,7 +4464,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
@@ -4541,7 +4512,7 @@
         <v>29</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>31</v>
@@ -4552,7 +4523,7 @@
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
@@ -4580,21 +4551,21 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="D69" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="34"/>
       <c r="G69" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
@@ -4620,19 +4591,19 @@
     </row>
     <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="35"/>
       <c r="F70" s="36"/>
       <c r="G70" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
@@ -4658,21 +4629,21 @@
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="D71" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="36"/>
       <c r="G71" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
@@ -4698,19 +4669,19 @@
     </row>
     <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="35"/>
       <c r="F72" s="36"/>
       <c r="G72" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
@@ -4736,19 +4707,19 @@
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="35"/>
       <c r="F73" s="36"/>
       <c r="G73" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
@@ -4774,19 +4745,19 @@
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="27"/>
       <c r="G74" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
@@ -4812,21 +4783,21 @@
     </row>
     <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>168</v>
       </c>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
@@ -4852,21 +4823,21 @@
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H76" s="34"/>
       <c r="I76" s="34"/>
@@ -4892,21 +4863,21 @@
     </row>
     <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -4932,21 +4903,21 @@
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H78" s="34"/>
       <c r="I78" s="34"/>
@@ -4972,21 +4943,21 @@
     </row>
     <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
       <c r="F79" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
@@ -5012,21 +4983,21 @@
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
@@ -5052,21 +5023,21 @@
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H81" s="34"/>
       <c r="I81" s="34"/>
@@ -5092,21 +5063,21 @@
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
@@ -5132,19 +5103,19 @@
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="27"/>
       <c r="G83" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
@@ -5170,19 +5141,19 @@
     </row>
     <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="27"/>
       <c r="G84" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H84" s="34"/>
       <c r="I84" s="34"/>
@@ -5208,21 +5179,21 @@
     </row>
     <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
@@ -5274,15 +5245,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E42:E65 E67" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E43:E65 E67" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A40" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A41" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J40" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J41" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5312,7 +5283,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="37" width="45.84"/>
@@ -5320,7 +5291,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>1</v>
@@ -5329,22 +5300,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>197</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>199</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>200</v>
       </c>
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
@@ -5362,13 +5333,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>201</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>202</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -5392,13 +5363,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -5446,46 +5417,46 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="37" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="37" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="37" t="n">
         <v>7</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="37" t="n">
         <v>14</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5568,7 +5539,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
@@ -5576,25 +5547,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="49" t="s">
         <v>213</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>214</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
@@ -5618,24 +5589,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="51" t="n">
         <f aca="true">NOW()</f>
-        <v>45218.3734118738</v>
+        <v>45253.3968102335</v>
       </c>
       <c r="D2" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>216</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>217</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
